--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt1-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt1-Fzd1.xlsx
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H2">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I2">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J2">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.752908</v>
+        <v>1.532593</v>
       </c>
       <c r="N2">
-        <v>1.505816</v>
+        <v>3.065186</v>
       </c>
       <c r="O2">
-        <v>0.04239205579776523</v>
+        <v>0.0795983245703594</v>
       </c>
       <c r="P2">
-        <v>0.03064402855818915</v>
+        <v>0.05838920196386116</v>
       </c>
       <c r="Q2">
-        <v>0.148509973638</v>
+        <v>0.0448045900585</v>
       </c>
       <c r="R2">
-        <v>0.594039894552</v>
+        <v>0.179218360234</v>
       </c>
       <c r="S2">
-        <v>0.035730316347329</v>
+        <v>0.03525222835234049</v>
       </c>
       <c r="T2">
-        <v>0.02394686739785063</v>
+        <v>0.020225230600218</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H3">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I3">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J3">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>36.540661</v>
       </c>
       <c r="O3">
-        <v>0.6858003633906682</v>
+        <v>0.6326044366842063</v>
       </c>
       <c r="P3">
-        <v>0.743618781590253</v>
+        <v>0.6960687002426557</v>
       </c>
       <c r="Q3">
-        <v>2.4025301904195</v>
+        <v>0.3560826513348333</v>
       </c>
       <c r="R3">
-        <v>14.415181142517</v>
+        <v>2.136495908009</v>
       </c>
       <c r="S3">
-        <v>0.5780296207374195</v>
+        <v>0.2801656464387398</v>
       </c>
       <c r="T3">
-        <v>0.5811031119318775</v>
+        <v>0.2411087924221866</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H4">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I4">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J4">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4715666666666667</v>
+        <v>0.8528209999999999</v>
       </c>
       <c r="N4">
-        <v>1.4147</v>
+        <v>2.558463</v>
       </c>
       <c r="O4">
-        <v>0.02655129238326527</v>
+        <v>0.04429298760885536</v>
       </c>
       <c r="P4">
-        <v>0.02878977723790303</v>
+        <v>0.04873655720209673</v>
       </c>
       <c r="Q4">
-        <v>0.09301581765</v>
+        <v>0.0249317955245</v>
       </c>
       <c r="R4">
-        <v>0.5580949059</v>
+        <v>0.149590773147</v>
       </c>
       <c r="S4">
-        <v>0.02237886458751327</v>
+        <v>0.01961632386137178</v>
       </c>
       <c r="T4">
-        <v>0.02249785718025263</v>
+        <v>0.01688168488213294</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H5">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I5">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J5">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.3898975</v>
+        <v>3.7338975</v>
       </c>
       <c r="N5">
-        <v>6.779795</v>
+        <v>7.467795</v>
       </c>
       <c r="O5">
-        <v>0.1908662465649254</v>
+        <v>0.1939275366111247</v>
       </c>
       <c r="P5">
-        <v>0.1379718581809916</v>
+        <v>0.142255181408147</v>
       </c>
       <c r="Q5">
-        <v>0.66865219702875</v>
+        <v>0.10915862646375</v>
       </c>
       <c r="R5">
-        <v>2.674608788115</v>
+        <v>0.436634505855</v>
       </c>
       <c r="S5">
-        <v>0.1608723908631861</v>
+        <v>0.08588595100867175</v>
       </c>
       <c r="T5">
-        <v>0.1078185195599002</v>
+        <v>0.04927527267518349</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H6">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I6">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J6">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6355266666666667</v>
+        <v>0.2147316666666667</v>
       </c>
       <c r="N6">
-        <v>1.90658</v>
+        <v>0.644195</v>
       </c>
       <c r="O6">
-        <v>0.03578296672940263</v>
+        <v>0.01115252444639089</v>
       </c>
       <c r="P6">
-        <v>0.03879975506202103</v>
+        <v>0.01227137014168456</v>
       </c>
       <c r="Q6">
-        <v>0.12535668171</v>
+        <v>0.006277572909166666</v>
       </c>
       <c r="R6">
-        <v>0.7521400902599999</v>
+        <v>0.037665437455</v>
       </c>
       <c r="S6">
-        <v>0.03015981879215456</v>
+        <v>0.004939191127593557</v>
       </c>
       <c r="T6">
-        <v>0.03032018416818127</v>
+        <v>0.004250636805240345</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H7">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I7">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J7">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3304726666666667</v>
+        <v>0.7398226666666666</v>
       </c>
       <c r="N7">
-        <v>0.991418</v>
+        <v>2.219468</v>
       </c>
       <c r="O7">
-        <v>0.01860707513397334</v>
+        <v>0.03842419007906348</v>
       </c>
       <c r="P7">
-        <v>0.02017579937064208</v>
+        <v>0.04227898904155473</v>
       </c>
       <c r="Q7">
-        <v>0.06518523779100001</v>
+        <v>0.02162834574866667</v>
       </c>
       <c r="R7">
-        <v>0.391111426746</v>
+        <v>0.129770074492</v>
       </c>
       <c r="S7">
-        <v>0.01568304882421943</v>
+        <v>0.01701717128133223</v>
       </c>
       <c r="T7">
-        <v>0.01576643851695179</v>
+        <v>0.01464487052655357</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.110328</v>
       </c>
       <c r="I8">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J8">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.752908</v>
+        <v>1.532593</v>
       </c>
       <c r="N8">
-        <v>1.505816</v>
+        <v>3.065186</v>
       </c>
       <c r="O8">
-        <v>0.04239205579776523</v>
+        <v>0.0795983245703594</v>
       </c>
       <c r="P8">
-        <v>0.03064402855818915</v>
+        <v>0.05838920196386116</v>
       </c>
       <c r="Q8">
-        <v>0.027688944608</v>
+        <v>0.05636264016799999</v>
       </c>
       <c r="R8">
-        <v>0.166133667648</v>
+        <v>0.338175841008</v>
       </c>
       <c r="S8">
-        <v>0.006661739450436231</v>
+        <v>0.0443460962180189</v>
       </c>
       <c r="T8">
-        <v>0.006697161160338519</v>
+        <v>0.03816397136364316</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.110328</v>
       </c>
       <c r="I9">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J9">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>36.540661</v>
       </c>
       <c r="O9">
-        <v>0.6858003633906682</v>
+        <v>0.6326044366842063</v>
       </c>
       <c r="P9">
-        <v>0.743618781590253</v>
+        <v>0.6960687002426557</v>
       </c>
       <c r="Q9">
         <v>0.4479397829786666</v>
@@ -1013,10 +1013,10 @@
         <v>4.031458046808</v>
       </c>
       <c r="S9">
-        <v>0.1077707426532487</v>
+        <v>0.3524387902454665</v>
       </c>
       <c r="T9">
-        <v>0.1625156696583756</v>
+        <v>0.454959907820469</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.110328</v>
       </c>
       <c r="I10">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J10">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4715666666666667</v>
+        <v>0.8528209999999999</v>
       </c>
       <c r="N10">
-        <v>1.4147</v>
+        <v>2.558463</v>
       </c>
       <c r="O10">
-        <v>0.02655129238326527</v>
+        <v>0.04429298760885536</v>
       </c>
       <c r="P10">
-        <v>0.02878977723790303</v>
+        <v>0.04873655720209673</v>
       </c>
       <c r="Q10">
-        <v>0.01734233573333333</v>
+        <v>0.03136334509599999</v>
       </c>
       <c r="R10">
-        <v>0.1560810216</v>
+        <v>0.282270105864</v>
       </c>
       <c r="S10">
-        <v>0.004172427795751998</v>
+        <v>0.02467666374748358</v>
       </c>
       <c r="T10">
-        <v>0.006291920057650405</v>
+        <v>0.03185487231996379</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.110328</v>
       </c>
       <c r="I11">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J11">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.3898975</v>
+        <v>3.7338975</v>
       </c>
       <c r="N11">
-        <v>6.779795</v>
+        <v>7.467795</v>
       </c>
       <c r="O11">
-        <v>0.1908662465649254</v>
+        <v>0.1939275366111247</v>
       </c>
       <c r="P11">
-        <v>0.1379718581809916</v>
+        <v>0.142255181408147</v>
       </c>
       <c r="Q11">
-        <v>0.12466687046</v>
+        <v>0.13731781446</v>
       </c>
       <c r="R11">
-        <v>0.7480012227599999</v>
+        <v>0.8239068867599999</v>
       </c>
       <c r="S11">
-        <v>0.02999385570173932</v>
+        <v>0.108041585602453</v>
       </c>
       <c r="T11">
-        <v>0.03015333862109134</v>
+        <v>0.09297990873296352</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.110328</v>
       </c>
       <c r="I12">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J12">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6355266666666667</v>
+        <v>0.2147316666666667</v>
       </c>
       <c r="N12">
-        <v>1.90658</v>
+        <v>0.644195</v>
       </c>
       <c r="O12">
-        <v>0.03578296672940263</v>
+        <v>0.01115252444639089</v>
       </c>
       <c r="P12">
-        <v>0.03879975506202103</v>
+        <v>0.01227137014168456</v>
       </c>
       <c r="Q12">
-        <v>0.02337212869333333</v>
+        <v>0.007896971773333332</v>
       </c>
       <c r="R12">
-        <v>0.21034915824</v>
+        <v>0.07107274595999999</v>
       </c>
       <c r="S12">
-        <v>0.005623147937248069</v>
+        <v>0.006213333318797334</v>
       </c>
       <c r="T12">
-        <v>0.00847957089383976</v>
+        <v>0.008020733336444215</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.110328</v>
       </c>
       <c r="I13">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J13">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3304726666666667</v>
+        <v>0.7398226666666666</v>
       </c>
       <c r="N13">
-        <v>0.991418</v>
+        <v>2.219468</v>
       </c>
       <c r="O13">
-        <v>0.01860707513397334</v>
+        <v>0.03842419007906348</v>
       </c>
       <c r="P13">
-        <v>0.02017579937064208</v>
+        <v>0.04227898904155473</v>
       </c>
       <c r="Q13">
-        <v>0.01215346278933333</v>
+        <v>0.02720771838933333</v>
       </c>
       <c r="R13">
-        <v>0.109381165104</v>
+        <v>0.244869465504</v>
       </c>
       <c r="S13">
-        <v>0.002924026309753908</v>
+        <v>0.02140701879773125</v>
       </c>
       <c r="T13">
-        <v>0.004409360853690287</v>
+        <v>0.02763411851500116</v>
       </c>
     </row>
   </sheetData>
